--- a/Capital gain calculation Testing candidate.xlsx
+++ b/Capital gain calculation Testing candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction_with_corporate_acti" sheetId="7" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>Asset Name</t>
   </si>
@@ -445,10 +445,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,39 +1754,51 @@
       <c r="I3" s="7"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="30">
+        <v>100</v>
+      </c>
+      <c r="C4" s="39">
+        <v>43992</v>
+      </c>
+      <c r="D4" s="39">
+        <v>43979</v>
+      </c>
       <c r="E4" s="25">
         <f>C4-D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="31">
+        <v>339.88150000000002</v>
+      </c>
+      <c r="G4" s="31">
+        <v>400.98</v>
+      </c>
       <c r="H4" s="12">
         <f>B4*F4</f>
-        <v>0</v>
+        <v>33988.15</v>
       </c>
       <c r="I4" s="12">
         <f>B4*G4</f>
-        <v>0</v>
+        <v>40098</v>
       </c>
       <c r="J4" s="21">
         <f>IF(E4&lt;365,I4-H4,0)</f>
-        <v>0</v>
+        <v>6109.8499999999985</v>
       </c>
       <c r="K4" s="21">
         <f>IF(E4&gt;365,I4-H4,0)</f>
@@ -1811,7 +1823,7 @@
       </c>
       <c r="Q4" s="11">
         <f>IF(I4-P4&gt;0,I4-P4,0)</f>
-        <v>0</v>
+        <v>40098</v>
       </c>
       <c r="R4" s="24">
         <f>IF(E4&gt;365,Q4,0)</f>
@@ -1823,27 +1835,39 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25">
+        <v>100</v>
+      </c>
+      <c r="C5" s="39">
+        <v>43993</v>
+      </c>
+      <c r="D5" s="39">
+        <v>43980</v>
+      </c>
       <c r="E5" s="25">
         <f t="shared" ref="E5:E67" si="0">C5-D5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="31">
+        <v>342.61509999999998</v>
+      </c>
+      <c r="G5" s="31">
+        <v>386.46</v>
+      </c>
       <c r="H5" s="12">
         <f t="shared" ref="H5:H67" si="1">B5*F5</f>
-        <v>0</v>
+        <v>34261.509999999995</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I67" si="2">B5*G5</f>
-        <v>0</v>
+        <v>38646</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" ref="J5:J67" si="3">IF(E5&lt;365,I5-H5,0)</f>
-        <v>0</v>
+        <v>4384.4900000000052</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K67" si="4">IF(E5&gt;365,I5-H5,0)</f>
@@ -1868,7 +1892,7 @@
       </c>
       <c r="Q5" s="11">
         <f t="shared" ref="Q5:Q17" si="8">IF(I5-P5&gt;0,I5-P5,0)</f>
-        <v>0</v>
+        <v>38646</v>
       </c>
       <c r="R5" s="24">
         <f t="shared" ref="R5:R14" si="9">IF(E5&gt;365,Q5,0)</f>
@@ -12466,7 +12490,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>38</v>
       </c>
     </row>
